--- a/data/xlsx/randvoorwaarden.xlsx
+++ b/data/xlsx/randvoorwaarden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\PILOT_HENA\hena_pilot\beheerregister\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\PILOT_HENA\modelbouwscript\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDA1FC8C-8B78-47D4-946B-2B6E458D4BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8810222-7CDA-42D4-9D3C-36E7605EED40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="1" r:id="rId1"/>
@@ -403,19 +403,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -435,6 +435,9 @@
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+      <c r="D2">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
